--- a/Docker Support Shift Schedule_Timecard Schedule Mar 19.xlsx
+++ b/Docker Support Shift Schedule_Timecard Schedule Mar 19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shri\CG docs\Roaster\2019\March\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65800ED-00D3-4EE0-A4AA-0DA23D30054A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F669060-733F-482F-9199-05BE11D3BD9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,7 +1546,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -1654,6 +1654,9 @@
   </si>
   <si>
     <t>Pallavi</t>
+  </si>
+  <si>
+    <t>s checking in anoth</t>
   </si>
 </sst>
 </file>
@@ -2848,8 +2851,8 @@
   <dimension ref="A1:Y501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H445" sqref="H445"/>
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D454" sqref="D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25783,7 +25786,7 @@
       </c>
       <c r="V444" s="55">
         <f>COUNTIF(E440:E470,"A")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W444" s="55">
         <f>COUNTIF(F440:F470,"A")</f>
@@ -25795,7 +25798,7 @@
       </c>
       <c r="Y444" s="55">
         <f t="shared" ref="Y444" si="40">COUNTIF(H440:H470,"A")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="445" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
@@ -25821,7 +25824,7 @@
         <v>8</v>
       </c>
       <c r="H445" s="4" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
@@ -25840,7 +25843,7 @@
       </c>
       <c r="O445" s="55">
         <f>COUNTIF(B445:H445,"D")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P445" s="55">
         <f>COUNTIF(B445:H445,"WO")</f>
@@ -25863,7 +25866,7 @@
       </c>
       <c r="V445" s="55">
         <f>COUNTIF(E440:E470,"C")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W445" s="55">
         <f>COUNTIF(F440:F470,"C")</f>
@@ -25875,7 +25878,7 @@
       </c>
       <c r="Y445" s="55">
         <f t="shared" ref="Y445" si="41">COUNTIF(H440:H470,"C")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
@@ -26035,7 +26038,7 @@
       </c>
       <c r="Y447" s="55">
         <f t="shared" ref="Y447" si="43">COUNTIF(H440:H470,"D")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
@@ -26618,7 +26621,7 @@
         <v>6</v>
       </c>
       <c r="J459" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K459" s="4" t="s">
         <v>11</v>
@@ -26629,7 +26632,7 @@
       </c>
       <c r="M459" s="55">
         <f t="shared" si="45"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N459" s="55">
         <f>COUNTIF(B459:H459,"NX")</f>
@@ -26641,7 +26644,7 @@
       </c>
       <c r="P459" s="55">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
@@ -26673,14 +26676,14 @@
         <v>6</v>
       </c>
       <c r="J460" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K460" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L460" s="55">
         <f t="shared" si="44"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M460" s="55">
         <f t="shared" si="45"/>
@@ -26696,7 +26699,7 @@
       </c>
       <c r="P460" s="55">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="461" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
@@ -26712,17 +26715,17 @@
       <c r="D461" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E461" s="89" t="s">
-        <v>7</v>
+      <c r="E461" s="51" t="s">
+        <v>8</v>
       </c>
       <c r="F461" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G461" s="4" t="s">
+      <c r="G461" s="89" t="s">
         <v>7</v>
       </c>
       <c r="H461" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I461" s="4" t="s">
         <v>6</v>
@@ -26780,17 +26783,17 @@
         <v>5</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J462" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K462" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L462" s="55">
         <f t="shared" si="44"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M462" s="55">
         <f t="shared" si="45"/>
@@ -26802,7 +26805,7 @@
       </c>
       <c r="O462" s="55">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P462" s="55">
         <f t="shared" si="47"/>
@@ -26835,7 +26838,7 @@
         <v>5</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J463" s="1" t="s">
         <v>5</v>
@@ -26857,11 +26860,11 @@
       </c>
       <c r="O463" s="55">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P463" s="55">
         <f t="shared" si="47"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="464" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
@@ -26890,17 +26893,17 @@
         <v>7</v>
       </c>
       <c r="I464" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J464" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K464" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L464" s="55">
         <f t="shared" si="44"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M464" s="55">
         <f t="shared" si="45"/>
@@ -26912,11 +26915,11 @@
       </c>
       <c r="O464" s="55">
         <f t="shared" si="46"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P464" s="55">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
@@ -26945,17 +26948,17 @@
         <v>7</v>
       </c>
       <c r="I465" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J465" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K465" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L465" s="55">
         <f t="shared" si="44"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M465" s="55">
         <f t="shared" si="45"/>
@@ -26971,7 +26974,7 @@
       </c>
       <c r="P465" s="55">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
@@ -27058,7 +27061,7 @@
         <v>8</v>
       </c>
       <c r="J467" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K467" s="4" t="s">
         <v>6</v>
@@ -27069,7 +27072,7 @@
       </c>
       <c r="M467" s="55">
         <f t="shared" si="45"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N467" s="55">
         <f>COUNTIF(B467:H467,"NX")</f>
@@ -27081,7 +27084,7 @@
       </c>
       <c r="P467" s="55">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
@@ -27110,21 +27113,21 @@
         <v>7</v>
       </c>
       <c r="I468" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J468" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K468" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L468" s="55">
         <f t="shared" si="44"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M468" s="55">
         <f t="shared" si="45"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N468" s="55">
         <f>COUNTIF(B468:H468,"NX")</f>
@@ -27136,7 +27139,7 @@
       </c>
       <c r="P468" s="55">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="469" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
@@ -27168,18 +27171,18 @@
         <v>5</v>
       </c>
       <c r="J469" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K469" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L469" s="55">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M469" s="55">
         <f t="shared" si="45"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N469" s="55">
         <f>COUNTIF(B469:H469,"NX")</f>
@@ -27187,11 +27190,11 @@
       </c>
       <c r="O469" s="55">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P469" s="55">
         <f t="shared" si="47"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
@@ -27223,14 +27226,14 @@
         <v>5</v>
       </c>
       <c r="J470" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K470" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L470" s="55">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M470" s="55">
         <f t="shared" si="45"/>
@@ -27242,11 +27245,11 @@
       </c>
       <c r="O470" s="55">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P470" s="55">
         <f t="shared" si="47"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="471" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
